--- a/acad_w.sup/exel/Book.xlsx
+++ b/acad_w.sup/exel/Book.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="12330"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="15480" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -33,8 +33,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,7 +155,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -190,7 +189,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -366,14 +364,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1">
         <v>1</v>
       </c>
@@ -391,13 +391,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <f>A1+1</f>
         <v>2</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B62" si="0">A2*A2*0.01</f>
+        <f t="shared" ref="B2:B50" si="0">A2*A2*0.01</f>
         <v>0.04</v>
       </c>
       <c r="C2">
@@ -410,9 +410,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
-        <f t="shared" ref="A3:A62" si="1">A2+1</f>
+        <f t="shared" ref="A3:A66" si="1">A2+1</f>
         <v>3</v>
       </c>
       <c r="B3">
@@ -429,7 +429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -448,7 +448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -467,7 +467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -486,7 +486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -524,7 +524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -543,7 +543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -562,7 +562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -581,7 +581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -600,7 +600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -619,7 +619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -638,7 +638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -657,7 +657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -676,7 +676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -695,7 +695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -714,7 +714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -733,7 +733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -752,7 +752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -771,7 +771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -790,7 +790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -809,7 +809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -828,7 +828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -847,7 +847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -866,7 +866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -885,7 +885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -904,7 +904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -923,7 +923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -942,7 +942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -980,7 +980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -999,7 +999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1018,7 +1018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1037,7 +1037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1056,7 +1056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1075,7 +1075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1094,7 +1094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -1113,7 +1113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -1132,7 +1132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -1151,7 +1151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1170,7 +1170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -1189,7 +1189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -1208,7 +1208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -1246,7 +1246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -1265,7 +1265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -1284,7 +1284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -1303,7 +1303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -1319,6 +1319,956 @@
         <v>4</v>
       </c>
       <c r="E50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51:B100" si="2">A51*A51*0.01</f>
+        <v>26.01</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="2"/>
+        <v>27.04</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="2"/>
+        <v>28.09</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="2"/>
+        <v>29.16</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="2"/>
+        <v>30.25</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="2"/>
+        <v>31.36</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="2"/>
+        <v>32.49</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="2"/>
+        <v>33.64</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="2"/>
+        <v>34.81</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="2"/>
+        <v>37.21</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="2"/>
+        <v>38.44</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="2"/>
+        <v>39.69</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="2"/>
+        <v>40.96</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="2"/>
+        <v>42.25</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="2"/>
+        <v>43.56</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <f t="shared" ref="A67:A100" si="3">A66+1</f>
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="2"/>
+        <v>44.89</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="2"/>
+        <v>46.24</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="2"/>
+        <v>47.61</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="2"/>
+        <v>50.410000000000004</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="2"/>
+        <v>51.84</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="2"/>
+        <v>53.29</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="2"/>
+        <v>54.76</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="2"/>
+        <v>56.25</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="2"/>
+        <v>57.76</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="2"/>
+        <v>59.29</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="2"/>
+        <v>60.84</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="2"/>
+        <v>62.410000000000004</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="2"/>
+        <v>65.61</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="2"/>
+        <v>67.239999999999995</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="2"/>
+        <v>68.89</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="2"/>
+        <v>70.56</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="E84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="2"/>
+        <v>72.25</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="2"/>
+        <v>73.960000000000008</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="2"/>
+        <v>75.69</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="2"/>
+        <v>77.44</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="2"/>
+        <v>79.210000000000008</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="2"/>
+        <v>82.81</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="2"/>
+        <v>84.64</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="2"/>
+        <v>86.49</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="2"/>
+        <v>88.36</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="2"/>
+        <v>90.25</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="2"/>
+        <v>92.16</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+      <c r="E96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="2"/>
+        <v>94.09</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+      <c r="E97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="2"/>
+        <v>96.04</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+      <c r="E98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="2"/>
+        <v>98.01</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="E99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+      <c r="E100">
         <v>5</v>
       </c>
     </row>
@@ -1328,24 +2278,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/acad_w.sup/exel/Book.xlsx
+++ b/acad_w.sup/exel/Book.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="15480" windowHeight="9120"/>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <f t="shared" ref="A67:A100" si="3">A66+1</f>
+        <f t="shared" ref="A67:A105" si="3">A66+1</f>
         <v>67</v>
       </c>
       <c r="B67">
@@ -2269,6 +2269,101 @@
         <v>4</v>
       </c>
       <c r="E100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ref="B101:B105" si="4">A101*A101*0.01</f>
+        <v>102.01</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+      <c r="E101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="4"/>
+        <v>104.04</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102">
+        <v>4</v>
+      </c>
+      <c r="E102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="4"/>
+        <v>106.09</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>4</v>
+      </c>
+      <c r="E103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="4"/>
+        <v>108.16</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+      <c r="E104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="4"/>
+        <v>110.25</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>4</v>
+      </c>
+      <c r="E105">
         <v>5</v>
       </c>
     </row>
